--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2780922.31545046</v>
+        <v>2778509.402944655</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8616640.827654069</v>
+        <v>8616640.827654073</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>229.3576204231333</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152353</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247899</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444494</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>15.50715559656666</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211451</v>
       </c>
       <c r="C17" t="n">
         <v>297.0487454286721</v>
@@ -1850,13 +1850,13 @@
         <v>286.4588952783475</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299264</v>
+        <v>243.95576864027</v>
       </c>
       <c r="F17" t="n">
         <v>338.651899399376</v>
       </c>
       <c r="G17" t="n">
-        <v>342.697579311118</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>226.383618044985</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.96361544584039</v>
       </c>
       <c r="T17" t="n">
         <v>135.6938237972847</v>
       </c>
       <c r="U17" t="n">
-        <v>112.7935609977673</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277994</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750776</v>
+        <v>281.0168223750775</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137182</v>
+        <v>318.0137923137181</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6078338396019</v>
+        <v>111.6078338396018</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629242</v>
+        <v>99.02267475629237</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587694</v>
+        <v>80.3913266758769</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423375</v>
+        <v>78.20981630423371</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059583</v>
+        <v>77.19690168059579</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669281</v>
+        <v>97.80166191669277</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198537</v>
+        <v>76.53086857198532</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750268</v>
+        <v>28.12827406750264</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771191</v>
+        <v>20.70800632771187</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891064</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338337</v>
       </c>
       <c r="U19" t="n">
         <v>217.9876918632774</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814925</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942555</v>
       </c>
       <c r="X19" t="n">
         <v>157.4855090467017</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097593</v>
       </c>
     </row>
     <row r="20">
@@ -2090,13 +2090,13 @@
         <v>313.7062237299264</v>
       </c>
       <c r="F20" t="n">
-        <v>338.651899399376</v>
+        <v>152.5874830435891</v>
       </c>
       <c r="G20" t="n">
         <v>342.697579311118</v>
       </c>
       <c r="H20" t="n">
-        <v>226.383618044985</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>23.73751697015091</v>
+        <v>40.96361544584039</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>259.5281121277995</v>
       </c>
       <c r="W20" t="n">
         <v>281.0168223750776</v>
@@ -2239,25 +2239,25 @@
         <v>111.6078338396019</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629242</v>
+        <v>99.0226747562924</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587694</v>
+        <v>80.39132667587693</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423375</v>
+        <v>78.20981630423374</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059583</v>
+        <v>77.19690168059581</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669281</v>
+        <v>97.80166191669279</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198537</v>
+        <v>76.53086857198535</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750268</v>
+        <v>28.12827406750267</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771191</v>
+        <v>20.7080063277119</v>
       </c>
       <c r="S22" t="n">
         <v>121.5448789891065</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584042</v>
+        <v>40.96361544584039</v>
       </c>
       <c r="T23" t="n">
         <v>135.6938237972847</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V23" t="n">
         <v>259.5281121277995</v>
@@ -2476,25 +2476,25 @@
         <v>111.6078338396019</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629242</v>
+        <v>99.0226747562924</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587694</v>
+        <v>80.39132667587693</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423375</v>
+        <v>78.20981630423374</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059583</v>
+        <v>77.19690168059581</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669281</v>
+        <v>97.80166191669279</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198537</v>
+        <v>76.53086857198535</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750268</v>
+        <v>28.12827406750267</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771191</v>
+        <v>20.7080063277119</v>
       </c>
       <c r="S25" t="n">
         <v>121.5448789891065</v>
@@ -2555,7 +2555,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524143</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
         <v>307.7079050020904</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,16 +3086,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429028</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.9983213925782</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136067</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253457</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592157</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007107</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115154</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503643</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383253</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010759</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846441</v>
       </c>
       <c r="F37" t="n">
-        <v>89.94326605921938</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092346</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621602</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>134.291243367729</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775081</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609324</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429028</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.9983213925782</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136067</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253487</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592153</v>
+        <v>196.9230441592157</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007107</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115154</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503643</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383253</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052307</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>93.13769105449948</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846441</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482648</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092346</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621602</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333713</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3718,16 +3718,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W40" t="n">
-        <v>231.0452163728793</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609324</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302254</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C41" t="n">
         <v>293.3142984377524</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874278</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390066</v>
+        <v>232.5304484985393</v>
       </c>
       <c r="F41" t="n">
         <v>334.9174524084563</v>
@@ -3755,7 +3755,7 @@
         <v>338.9631323201983</v>
       </c>
       <c r="H41" t="n">
-        <v>118.2770596630483</v>
+        <v>222.6491710540653</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>179.0365786256468</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W41" t="n">
-        <v>277.2823753841578</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X41" t="n">
         <v>297.7725073452139</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227984</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486821</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537267</v>
+        <v>95.2882277653727</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495719</v>
+        <v>76.65687968495722</v>
       </c>
       <c r="E43" t="n">
-        <v>74.475369313314</v>
+        <v>74.47536931331403</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967608</v>
+        <v>73.46245468967611</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577306</v>
+        <v>94.06721492577309</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106562</v>
+        <v>72.79642158106564</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658293</v>
+        <v>24.39382707658296</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679216</v>
+        <v>16.97355933679219</v>
       </c>
       <c r="S43" t="n">
-        <v>149.2230882337283</v>
+        <v>117.8104319981868</v>
       </c>
       <c r="T43" t="n">
-        <v>147.590355942914</v>
+        <v>179.0030121784553</v>
       </c>
       <c r="U43" t="n">
         <v>214.2532448723577</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1790499905728</v>
+        <v>180.1790499905729</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033358</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X43" t="n">
         <v>153.751062055782</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188396</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302254</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377525</v>
       </c>
       <c r="D44" t="n">
-        <v>232.5304484985375</v>
+        <v>282.7244482874279</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084563</v>
+        <v>334.9174524084564</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9631323201983</v>
+        <v>338.9631323201984</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540653</v>
+        <v>172.4551712651741</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492068</v>
+        <v>37.22916845492077</v>
       </c>
       <c r="T44" t="n">
-        <v>131.959376806365</v>
+        <v>131.9593768063651</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0365786256468</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368797</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841578</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X44" t="n">
-        <v>297.7725073452139</v>
+        <v>297.772507345214</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227984</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486821</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537267</v>
+        <v>95.28822776537277</v>
       </c>
       <c r="D46" t="n">
-        <v>108.0695359204988</v>
+        <v>76.65687968495729</v>
       </c>
       <c r="E46" t="n">
-        <v>74.475369313314</v>
+        <v>74.4753693133141</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967608</v>
+        <v>73.46245468967618</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577306</v>
+        <v>94.06721492577316</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106562</v>
+        <v>72.79642158106572</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658293</v>
+        <v>24.39382707658303</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679216</v>
+        <v>48.3862155723323</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981867</v>
+        <v>117.8104319981868</v>
       </c>
       <c r="T46" t="n">
-        <v>147.590355942914</v>
+        <v>147.5903559429141</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723577</v>
+        <v>214.2532448723578</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905728</v>
+        <v>180.1790499905729</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033358</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X46" t="n">
-        <v>153.751062055782</v>
+        <v>153.7510620557821</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188396</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1627.383644777221</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232655</v>
+        <v>1305.870760784883</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>995.0546951262058</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822729</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939511</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296689</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084342</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416637</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638547</v>
       </c>
       <c r="V11" t="n">
-        <v>2898.155827638544</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W11" t="n">
-        <v>2592.836805316503</v>
+        <v>2309.223550921009</v>
       </c>
       <c r="X11" t="n">
-        <v>2592.836805316503</v>
+        <v>2309.223550921009</v>
       </c>
       <c r="Y11" t="n">
-        <v>2250.147106288765</v>
+        <v>1966.53385189327</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254611</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268788</v>
       </c>
       <c r="F13" t="n">
         <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657649</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5212,19 +5212,19 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874611</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573979</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822735</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>3309.942028077285</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>3026.328773681788</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>3026.328773681788</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341043</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
         <v>765.151745215813</v>
@@ -5379,28 +5379,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
         <v>434.8492327268782</v>
@@ -5428,19 +5428,19 @@
         <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1889.690865111401</v>
+        <v>1473.076688949002</v>
       </c>
       <c r="C17" t="n">
-        <v>1589.641627304661</v>
+        <v>1173.027451142263</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.289207831583</v>
+        <v>883.6750316691844</v>
       </c>
       <c r="E17" t="n">
-        <v>983.414234367011</v>
+        <v>637.2550633456793</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3416087110754</v>
+        <v>295.182437689744</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1824376897441</v>
+        <v>295.182437689744</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912074</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810539</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.228432269937</v>
       </c>
       <c r="T17" t="n">
-        <v>3188.541353127065</v>
+        <v>3147.163963787831</v>
       </c>
       <c r="U17" t="n">
-        <v>3074.60846323033</v>
+        <v>2962.54676619534</v>
       </c>
       <c r="V17" t="n">
-        <v>2812.458855020432</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W17" t="n">
-        <v>2528.60347888399</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X17" t="n">
-        <v>2528.60347888399</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y17" t="n">
-        <v>2207.37742604185</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5598,7 +5598,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061024</v>
+        <v>609.2207265061022</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118676</v>
+        <v>509.1978227118674</v>
       </c>
       <c r="D19" t="n">
-        <v>427.994462433204</v>
+        <v>427.9944624332039</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844831</v>
+        <v>348.994647984483</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202449</v>
+        <v>271.0179796202448</v>
       </c>
       <c r="G19" t="n">
-        <v>172.228422128636</v>
+        <v>172.2284221286359</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016593</v>
+        <v>94.92451448016585</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
         <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>660.8064733261619</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.963518925711</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.371895631576</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.701494551989</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.308994985648</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138164</v>
+        <v>1955.919291138163</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029364</v>
+        <v>1935.002113029363</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989863</v>
+        <v>1812.229507989862</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693061</v>
+        <v>1659.37617169306</v>
       </c>
       <c r="U19" t="n">
         <v>1439.186583952376</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880162</v>
+        <v>1253.415374880161</v>
       </c>
       <c r="W19" t="n">
         <v>1032.911483976873</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125279</v>
+        <v>873.8352122125277</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.95591220267</v>
+        <v>721.9559122026698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.690865111401</v>
+        <v>1473.076688949005</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.641627304661</v>
+        <v>1173.027451142266</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.289207831583</v>
+        <v>883.6750316691875</v>
       </c>
       <c r="E20" t="n">
-        <v>983.414234367011</v>
+        <v>566.8000582046154</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110757</v>
+        <v>412.6712874535148</v>
       </c>
       <c r="G20" t="n">
-        <v>295.1824376897441</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3301.628531740332</v>
+        <v>3284.22843226994</v>
       </c>
       <c r="T20" t="n">
-        <v>3301.628531740332</v>
+        <v>3147.163963787834</v>
       </c>
       <c r="U20" t="n">
-        <v>3117.01133414784</v>
+        <v>2962.546766195343</v>
       </c>
       <c r="V20" t="n">
-        <v>3117.01133414784</v>
+        <v>2700.397157985444</v>
       </c>
       <c r="W20" t="n">
-        <v>2833.155958011398</v>
+        <v>2416.541781849002</v>
       </c>
       <c r="X20" t="n">
-        <v>2528.60347888399</v>
+        <v>2111.989302721594</v>
       </c>
       <c r="Y20" t="n">
-        <v>2207.37742604185</v>
+        <v>1790.763249879455</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
         <v>765.1517452158131</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061024</v>
+        <v>609.2207265061023</v>
       </c>
       <c r="C22" t="n">
         <v>509.1978227118676</v>
@@ -5902,10 +5902,10 @@
         <v>172.228422128636</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016593</v>
+        <v>94.92451448016594</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5926,7 +5926,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.308994985649</v>
       </c>
       <c r="Q22" t="n">
         <v>1955.919291138164</v>
@@ -5950,10 +5950,10 @@
         <v>1032.911483976873</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125279</v>
+        <v>873.8352122125278</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.95591220267</v>
+        <v>721.9559122026699</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5969,46 @@
         <v>1598.143957430425</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.791537957346</v>
+        <v>1308.791537957347</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927743</v>
+        <v>991.9165644927746</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368388</v>
+        <v>649.8439388368392</v>
       </c>
       <c r="G23" t="n">
         <v>303.6847678155073</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="J23" t="n">
-        <v>431.2992265373251</v>
+        <v>263.8935775169721</v>
       </c>
       <c r="K23" t="n">
-        <v>765.1186002271716</v>
+        <v>597.7129512068186</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.15281347558</v>
+        <v>1048.747164455227</v>
       </c>
       <c r="M23" t="n">
-        <v>1749.684718147505</v>
+        <v>1582.279069127152</v>
       </c>
       <c r="N23" t="n">
-        <v>2296.463535206287</v>
+        <v>2168.679882898214</v>
       </c>
       <c r="O23" t="n">
-        <v>2799.436006085624</v>
+        <v>3048.644533227668</v>
       </c>
       <c r="P23" t="n">
-        <v>3194.210372442803</v>
+        <v>3443.418899584847</v>
       </c>
       <c r="Q23" t="n">
-        <v>3626.646005666277</v>
+        <v>3691.705261340529</v>
       </c>
       <c r="R23" t="n">
         <v>3750.722327897332</v>
@@ -6063,7 +6063,7 @@
         <v>94.02173815640867</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="J24" t="n">
         <v>168.6917160485639</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318656</v>
+        <v>617.7230566318655</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376309</v>
+        <v>517.7001528376308</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589673</v>
+        <v>436.4967925589672</v>
       </c>
       <c r="E25" t="n">
         <v>357.4969781102463</v>
@@ -6142,7 +6142,7 @@
         <v>103.4268446059291</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="J25" t="n">
         <v>120.1370790048822</v>
@@ -6187,10 +6187,10 @@
         <v>1041.413814102636</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3375423382911</v>
+        <v>882.337542338291</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284331</v>
+        <v>730.458242328433</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6379,19 +6379,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982174</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,13 +6403,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570352</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467799</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>907.4660419013956</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1771.98485755475</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>2305.516762226675</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285457</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164794</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6616,19 +6616,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,25 +6640,25 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,61 +6686,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>822.9179334642263</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1273.952146712635</v>
       </c>
       <c r="M32" t="n">
-        <v>2200.835586644152</v>
+        <v>1807.48405138456</v>
       </c>
       <c r="N32" t="n">
-        <v>2747.614403702934</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O32" t="n">
-        <v>3250.586874582271</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3684.983160847722</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973152</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103803</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070896</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464949</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307305</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127572</v>
+        <v>599.6022649647799</v>
       </c>
       <c r="C37" t="n">
-        <v>571.9707875848503</v>
+        <v>430.666082036873</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8541481725146</v>
+        <v>379.2208771983805</v>
       </c>
       <c r="E37" t="n">
-        <v>273.9410545901214</v>
+        <v>329.9792181898306</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919203</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515029</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084555</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.448779784042</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578155</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663014</v>
+        <v>934.0185561150374</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388403</v>
+        <v>804.7004397908632</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691535</v>
+        <v>682.5792952211764</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464985</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495731</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810584</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329467</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001392</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060174</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939511</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296689</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052372</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710112</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668178</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.42977974613</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049859</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960654</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170928</v>
+        <v>444.8926667912269</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630292</v>
+        <v>374.6279184371631</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245374</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159875</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919203</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404825</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>736.67568696735</v>
+        <v>877.9803925153276</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431759</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734892</v>
+        <v>527.8696970476234</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1761.631477902779</v>
+        <v>1503.25403837058</v>
       </c>
       <c r="C41" t="n">
-        <v>1465.354408773737</v>
+        <v>1206.976969241537</v>
       </c>
       <c r="D41" t="n">
-        <v>1179.774157978355</v>
+        <v>1206.976969241537</v>
       </c>
       <c r="E41" t="n">
-        <v>866.6713531914796</v>
+        <v>972.0977283339216</v>
       </c>
       <c r="F41" t="n">
-        <v>528.3708962132409</v>
+        <v>633.7972713556821</v>
       </c>
       <c r="G41" t="n">
-        <v>185.983893869606</v>
+        <v>291.4102690120475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912119</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810584</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329467</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001392</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060174</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939511</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296689</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052372</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="S41" t="n">
-        <v>3288.000600947636</v>
+        <v>3288.000600947638</v>
       </c>
       <c r="T41" t="n">
-        <v>3154.708301143226</v>
+        <v>3154.708301143229</v>
       </c>
       <c r="U41" t="n">
-        <v>2973.863272228431</v>
+        <v>2973.863272228434</v>
       </c>
       <c r="V41" t="n">
-        <v>2973.863272228431</v>
+        <v>2715.485832696232</v>
       </c>
       <c r="W41" t="n">
-        <v>2693.780064769686</v>
+        <v>2435.402625237487</v>
       </c>
       <c r="X41" t="n">
-        <v>2392.999754319975</v>
+        <v>2134.622314787776</v>
       </c>
       <c r="Y41" t="n">
-        <v>2075.545870155532</v>
+        <v>1817.168430623333</v>
       </c>
     </row>
     <row r="42">
@@ -7482,16 +7482,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158131</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622254</v>
+        <v>582.8155457622257</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456874</v>
+        <v>486.5648106456877</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447205</v>
+        <v>409.1336190447208</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736962</v>
+        <v>333.9059732736965</v>
       </c>
       <c r="F43" t="n">
-        <v>259.7014735871547</v>
+        <v>259.701473587155</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732426</v>
+        <v>164.6840847732427</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246923</v>
+        <v>91.15234580246931</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7591,13 +7591,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1910.149538657389</v>
+        <v>1910.14953865739</v>
       </c>
       <c r="S43" t="n">
-        <v>1759.419146502108</v>
+        <v>1791.149102295585</v>
       </c>
       <c r="T43" t="n">
-        <v>1610.337978883003</v>
+        <v>1610.337978883004</v>
       </c>
       <c r="U43" t="n">
         <v>1393.920559820016</v>
@@ -7606,13 +7606,13 @@
         <v>1211.921519425498</v>
       </c>
       <c r="W43" t="n">
-        <v>995.1897971999058</v>
+        <v>995.1897971999065</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8856941132574</v>
+        <v>839.885694113258</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.7785627810962</v>
+        <v>691.7785627810966</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1503.254038370578</v>
+        <v>1503.254038370577</v>
       </c>
       <c r="C44" t="n">
-        <v>1206.976969241535</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="D44" t="n">
-        <v>972.0977283339207</v>
+        <v>921.3967184461526</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339207</v>
+        <v>921.3967184461526</v>
       </c>
       <c r="F44" t="n">
-        <v>633.797271355682</v>
+        <v>583.0962614679138</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120474</v>
+        <v>240.7092591242785</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7646,34 +7646,34 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947636</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T44" t="n">
         <v>3154.708301143226</v>
@@ -7682,16 +7682,16 @@
         <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2715.48583269623</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W44" t="n">
-        <v>2435.402625237485</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X44" t="n">
         <v>2134.622314787774</v>
       </c>
       <c r="Y44" t="n">
-        <v>1817.168430623331</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>614.5455015557018</v>
+        <v>582.8155457622262</v>
       </c>
       <c r="C46" t="n">
-        <v>518.2947664391637</v>
+        <v>486.564810645688</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447205</v>
+        <v>409.133619044721</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736962</v>
+        <v>333.9059732736966</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871547</v>
+        <v>259.7014735871551</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732426</v>
+        <v>164.6840847732428</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246923</v>
+        <v>91.15234580246933</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.149538657389</v>
+        <v>1878.419582863915</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.149102295585</v>
+        <v>1759.41914650211</v>
       </c>
       <c r="T46" t="n">
-        <v>1642.06793467648</v>
+        <v>1610.337978883005</v>
       </c>
       <c r="U46" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820017</v>
       </c>
       <c r="V46" t="n">
-        <v>1243.651475218974</v>
+        <v>1211.921519425499</v>
       </c>
       <c r="W46" t="n">
-        <v>1026.919752993382</v>
+        <v>995.1897971999069</v>
       </c>
       <c r="X46" t="n">
-        <v>871.6156499067338</v>
+        <v>839.8856941132584</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.5085185745726</v>
+        <v>691.7785627810971</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331807</v>
+        <v>161.2833466331816</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772608</v>
+        <v>190.470899677262</v>
       </c>
       <c r="L8" t="n">
-        <v>199.021486711493</v>
+        <v>199.0214867114945</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499961</v>
+        <v>189.4604205499978</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253949</v>
+        <v>187.8656757253966</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001296</v>
+        <v>190.8661912001313</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610373</v>
+        <v>197.7493741610388</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168178</v>
+        <v>197.1608845168188</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723701</v>
+        <v>115.0671825723706</v>
       </c>
       <c r="K9" t="n">
-        <v>117.723875248454</v>
+        <v>117.7238752484549</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888313</v>
+        <v>111.5038326888324</v>
       </c>
       <c r="M9" t="n">
-        <v>110.56732135865</v>
+        <v>110.5673213586514</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809743</v>
+        <v>98.93952256809879</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195519</v>
+        <v>112.9545713195532</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755397</v>
+        <v>110.1843514755407</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137821</v>
+        <v>124.0787517137828</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747614</v>
+        <v>119.356265474762</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960286</v>
+        <v>122.5532519960293</v>
       </c>
       <c r="N10" t="n">
-        <v>111.702314729057</v>
+        <v>111.7023147290576</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297868</v>
+        <v>123.6934388297875</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182091</v>
+        <v>125.0956219182096</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.449507180950604e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>40.02221890129215</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.0093651189818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279888</v>
       </c>
       <c r="P26" t="n">
-        <v>277.220684154413</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>306.6874953089238</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.001785447392</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>221.2853655744092</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>40.02214132148561</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>3.069544618483633e-12</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3.041122909053229e-12</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0698909884586</v>
+        <v>15.06989098845861</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.4010846217546</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.231617438434</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796561</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>188.5128797437427</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>69.7504550896563</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584042</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>69.97746461879926</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5069543361336</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>186.0644163557869</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.2260984756895</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6938237972847</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5281121277995</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>77.44132824046733</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>104.3721113910169</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368797</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>50.1939997888903</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390066</v>
+        <v>309.9717767390067</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978889128</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>809729.7061772195</v>
+        <v>809729.7061772202</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681163.5129538589</v>
+        <v>681163.5129538591</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681163.5129538589</v>
+        <v>681163.5129538588</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>701883.4223354806</v>
+        <v>701883.4223354807</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>759439.5065838975</v>
+        <v>759439.5065838976</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759439.5065838975</v>
+        <v>759439.5065838976</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>759439.5065838975</v>
+        <v>759439.5065838976</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>730610.4279314944</v>
+        <v>730610.4279314942</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730610.4279314944</v>
+        <v>730610.4279314945</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>705524.8815963264</v>
+        <v>705524.8815963267</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>705524.8815963265</v>
+        <v>705524.8815963264</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774087</v>
+        <v>716866.7963774084</v>
       </c>
       <c r="C2" t="n">
-        <v>716866.7963774087</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="D2" t="n">
-        <v>716883.0141379917</v>
+        <v>716883.0141379918</v>
       </c>
       <c r="E2" t="n">
-        <v>668964.6336536125</v>
+        <v>668964.6336536128</v>
       </c>
       <c r="F2" t="n">
-        <v>668964.6336536122</v>
+        <v>668964.6336536123</v>
       </c>
       <c r="G2" t="n">
-        <v>689684.543035235</v>
+        <v>689684.5430352339</v>
       </c>
       <c r="H2" t="n">
-        <v>689684.543035234</v>
+        <v>689684.5430352349</v>
       </c>
       <c r="I2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="J2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312488</v>
       </c>
       <c r="K2" t="n">
         <v>718411.5486312486</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312485</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312475</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="O2" t="n">
-        <v>693326.0022960803</v>
+        <v>693326.0022960806</v>
       </c>
       <c r="P2" t="n">
         <v>693326.0022960805</v>
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004265045</v>
+        <v>49603.99004264835</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112466</v>
+        <v>1114814.601112469</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899445</v>
+        <v>16999.20777899449</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.84042391992989e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716354</v>
+        <v>28261.85161716339</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225408</v>
+        <v>40637.45238225412</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899429</v>
+        <v>16999.20777899428</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927242</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>434286.8804955488</v>
+        <v>434286.8804955495</v>
       </c>
       <c r="E4" t="n">
-        <v>60045.38930863553</v>
+        <v>60045.38930863536</v>
       </c>
       <c r="F4" t="n">
-        <v>60045.38930863551</v>
+        <v>60045.38930863547</v>
       </c>
       <c r="G4" t="n">
-        <v>73454.04572443693</v>
+        <v>73454.04572443689</v>
       </c>
       <c r="H4" t="n">
-        <v>73454.04572443692</v>
+        <v>73454.04572443695</v>
       </c>
       <c r="I4" t="n">
-        <v>90253.02344554523</v>
+        <v>90253.02344554522</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699575</v>
+        <v>88960.95519699583</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.95519699584</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.9551969958</v>
+        <v>88960.95519699581</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818167</v>
+        <v>92183.89891818159</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818167</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="O4" t="n">
-        <v>75820.46586589146</v>
+        <v>75820.46586589154</v>
       </c>
       <c r="P4" t="n">
-        <v>75820.46586589146</v>
+        <v>75820.46586589138</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253473</v>
+        <v>34890.26850253468</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.4933217818</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.87632024707</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.87632024712</v>
       </c>
       <c r="I5" t="n">
         <v>86503.64721582714</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.5973062499</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.82754432673</v>
+        <v>80355.82754432678</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432673</v>
+        <v>80355.82754432672</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>230839.2058284435</v>
+        <v>230834.7922505751</v>
       </c>
       <c r="C6" t="n">
-        <v>230839.2058284435</v>
+        <v>230834.7922505753</v>
       </c>
       <c r="D6" t="n">
-        <v>198101.8750972577</v>
+        <v>198097.5078558499</v>
       </c>
       <c r="E6" t="n">
-        <v>-584150.8500892709</v>
+        <v>-584292.1269892093</v>
       </c>
       <c r="F6" t="n">
-        <v>530663.751023195</v>
+        <v>530522.4741232597</v>
       </c>
       <c r="G6" t="n">
-        <v>519189.4132115566</v>
+        <v>519107.3360527097</v>
       </c>
       <c r="H6" t="n">
-        <v>536188.62099055</v>
+        <v>536106.5438317049</v>
       </c>
       <c r="I6" t="n">
-        <v>513393.0263527122</v>
+        <v>513393.0263527125</v>
       </c>
       <c r="J6" t="n">
-        <v>499435.1993771925</v>
+        <v>499435.1993771926</v>
       </c>
       <c r="K6" t="n">
-        <v>540072.6517594468</v>
+        <v>540072.6517594466</v>
       </c>
       <c r="L6" t="n">
-        <v>523073.443980452</v>
+        <v>523073.4439804524</v>
       </c>
       <c r="M6" t="n">
-        <v>341540.9524140924</v>
+        <v>341540.9524140919</v>
       </c>
       <c r="N6" t="n">
-        <v>543709.0524068164</v>
+        <v>543709.0524068167</v>
       </c>
       <c r="O6" t="n">
-        <v>537149.7088858621</v>
+        <v>537078.0358963332</v>
       </c>
       <c r="P6" t="n">
-        <v>537149.7088858623</v>
+        <v>537078.0358963332</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076751</v>
+        <v>57.92057351076507</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="I4" t="n">
+        <v>937.6805819743329</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>937.680581974333</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374284</v>
+        <v>21.24900972374289</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484973</v>
+        <v>25.72612689484963</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374286</v>
+        <v>21.24900972374285</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951231</v>
+        <v>50.70958360951225</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076751</v>
+        <v>57.92057351076507</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.85612708253</v>
+        <v>1031.856127082534</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-5.488038562430746e-14</v>
       </c>
       <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-9.094947017729281e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720404</v>
+        <v>106.2791265720398</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428131</v>
+        <v>76.65587923428177</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374284</v>
+        <v>21.24900972374289</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484973</v>
+        <v>25.72612689484963</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.0901626244419</v>
+        <v>337.090162624442</v>
       </c>
       <c r="I8" t="n">
-        <v>201.499073850712</v>
+        <v>201.4990738507124</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.24257230981</v>
+        <v>135.2425723098106</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596057</v>
+        <v>203.7140793596059</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858937</v>
+        <v>85.10723188858955</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643157</v>
+        <v>92.42270548643189</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3690802659312</v>
+        <v>169.3690802659313</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6625682508933</v>
+        <v>199.6625682508934</v>
       </c>
       <c r="U9" t="n">
         <v>225.9331857734025</v>
@@ -28029,13 +28029,13 @@
         <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112973</v>
+        <v>152.3094707112975</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284918</v>
+        <v>85.97478175284949</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657779</v>
+        <v>10.13465691657831</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156849</v>
+        <v>77.41603665156886</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348046</v>
+        <v>172.5970773348048</v>
       </c>
       <c r="S10" t="n">
-        <v>222.1963728005765</v>
+        <v>222.1963728005766</v>
       </c>
       <c r="T10" t="n">
         <v>227.499316156969</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="J13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="K13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="L13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="N13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="O13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="P13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="R13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="S13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.913881868354</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.91388186835488</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233546</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>28.91388186835485</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.91388186835488</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233542</v>
+        <v>68.22414634233543</v>
       </c>
     </row>
     <row r="26">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859344</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859182</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="F37" t="n">
-        <v>55.47778196371186</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371291</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371287</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,7 +30429,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -30438,16 +30438,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="W40" t="n">
-        <v>55.47778196371166</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="S43" t="n">
-        <v>40.54593709771356</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325517</v>
+        <v>40.54593709771393</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325514</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="D46" t="n">
-        <v>40.54593709771358</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325517</v>
+        <v>40.54593709771503</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764521</v>
+        <v>0.2328465266764423</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325216</v>
+        <v>2.384639491325115</v>
       </c>
       <c r="I8" t="n">
-        <v>8.97681571969393</v>
+        <v>8.976815719693551</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350555</v>
+        <v>19.76255789350471</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771977</v>
+        <v>29.61895136771852</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849425</v>
+        <v>36.7449282584927</v>
       </c>
       <c r="M8" t="n">
-        <v>40.8858126772766</v>
+        <v>40.88581267727488</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119608</v>
+        <v>41.54738787119432</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155711</v>
+        <v>39.23202022155545</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423219</v>
+        <v>33.48362159423078</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763174</v>
+        <v>25.14480535763068</v>
       </c>
       <c r="R8" t="n">
-        <v>14.6265456313397</v>
+        <v>14.62654563133908</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639659</v>
+        <v>5.305990226639434</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01928567052617</v>
+        <v>1.019285670526127</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411617</v>
+        <v>0.01862772213411538</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.124583875098632</v>
+        <v>0.1245838750986268</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610472</v>
+        <v>1.203217951610422</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825708</v>
+        <v>4.289400962825527</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429663</v>
+        <v>11.77044409429614</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590498</v>
+        <v>20.11756372590413</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104289</v>
+        <v>27.05054709104175</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336829</v>
+        <v>31.56671256336696</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523588</v>
+        <v>32.40218951523451</v>
       </c>
       <c r="O9" t="n">
-        <v>29.6416731248925</v>
+        <v>29.64167312489125</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593879053</v>
+        <v>23.79005593878952</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223941</v>
+        <v>15.90302237223874</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211558</v>
+        <v>7.735128666211232</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906606</v>
+        <v>2.314090837906508</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282578</v>
+        <v>0.5021604439282366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278424</v>
+        <v>0.008196307572278079</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390889</v>
+        <v>0.1044469358390845</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693551</v>
+        <v>0.9286282113693159</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960967</v>
+        <v>3.141004215960834</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823588</v>
+        <v>7.384398363823276</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930506</v>
+        <v>12.13483490930455</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647692</v>
+        <v>15.52841080647626</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157646</v>
+        <v>16.37253195157577</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617623</v>
+        <v>15.98322973617556</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205596</v>
+        <v>14.76309962205534</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093853</v>
+        <v>12.632382130938</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125893</v>
+        <v>8.746006600125526</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364852</v>
+        <v>4.696314042364654</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395759</v>
+        <v>1.820225236395682</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124708</v>
+        <v>0.446273271312452</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00569710559122304</v>
+        <v>0.005697105591222799</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32330,7 +32330,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837919</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34208,13 +34208,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687111</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36045,7 +36045,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385521</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.3081204062485</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36294,10 +36294,10 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>263.8709530134653</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.3081204062485</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>592.3240543142036</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.8036699227013</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597706</v>
+        <v>94.62350453597708</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>698.2880119162079</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737849</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>643.8787818643243</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356111</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>558.4766521298097</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>438.7841275408575</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162913</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412316</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37543,7 +37543,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554036</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004586</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687156</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597685</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
